--- a/Files/Batch18.xlsx
+++ b/Files/Batch18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8835" windowHeight="14010"/>
+    <workbookView windowWidth="27945" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1211,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1267,10 +1267,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>250000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>90000</v>
       </c>
     </row>
   </sheetData>
